--- a/Searches/Merged_Searches.xlsx
+++ b/Searches/Merged_Searches.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/Searches/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E690CDAF-5A2B-644A-9E37-DFEB360C44B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="700" yWindow="1240" windowWidth="20900" windowHeight="13300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="searches" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="157">
   <si>
     <t>name</t>
   </si>
@@ -431,13 +437,67 @@
   </si>
   <si>
     <t>https://github.com/JohanSchott/rspt2spectra</t>
+  </si>
+  <si>
+    <t>pyNMR</t>
+  </si>
+  <si>
+    <t>https://github.com/bennomeier/pyNMR</t>
+  </si>
+  <si>
+    <t>A python module to import NMR data stored in Bruker / TopSpin, TecMag / NTNMR, Magritek / Kea or Chemagnetics / Spinsight format</t>
+  </si>
+  <si>
+    <t>convert zipped Bruker NMR raw data into tabulated txt file for BATMAN</t>
+  </si>
+  <si>
+    <t>https://github.com/jianlianggao/container-bruker2batman</t>
+  </si>
+  <si>
+    <t>container-bruker2batman</t>
+  </si>
+  <si>
+    <t>https://github.com/jieh/batman-Bruker-reader</t>
+  </si>
+  <si>
+    <t>R files read Bruker 1D NMR</t>
+  </si>
+  <si>
+    <t>batman-Burker-reader</t>
+  </si>
+  <si>
+    <t>Importing, processing, and plotting Bruker NMR data in R</t>
+  </si>
+  <si>
+    <t>https://github.com/jmstrat/NMR.Utils</t>
+  </si>
+  <si>
+    <t>NMR.Utils</t>
+  </si>
+  <si>
+    <t>read and convert any NMR file</t>
+  </si>
+  <si>
+    <t>https://github.com/cheminfo/nmr-parser</t>
+  </si>
+  <si>
+    <t>nmr-parser</t>
+  </si>
+  <si>
+    <t>The xyza2pipe is a cross conversion environment of NMR spectra</t>
+  </si>
+  <si>
+    <t>xyza2pipe</t>
+  </si>
+  <si>
+    <t>https://github.com/yokochi47/xyza2pipe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,6 +547,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -533,7 +601,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,9 +633,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,6 +685,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -774,14 +878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="115.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -803,7 +913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -814,7 +924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -825,7 +935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -836,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -847,7 +957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -858,7 +968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -869,7 +979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -880,7 +990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -891,7 +1001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -902,7 +1012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -913,7 +1023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -924,7 +1034,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -935,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -946,7 +1056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -957,7 +1067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -968,7 +1078,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -979,7 +1089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -990,7 +1100,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1001,7 +1111,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1012,7 +1122,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1023,7 +1133,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1034,7 +1144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -1045,7 +1155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -1056,7 +1166,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -1067,7 +1177,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -1078,7 +1188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -1089,7 +1199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -1100,7 +1210,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -1111,7 +1221,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -1122,7 +1232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -1133,7 +1243,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -1144,7 +1254,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -1155,7 +1265,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>95</v>
       </c>
@@ -1166,7 +1276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -1177,7 +1287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -1188,7 +1298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -1199,7 +1309,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -1210,7 +1320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -1221,7 +1331,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -1232,7 +1342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>116</v>
       </c>
@@ -1243,7 +1353,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -1254,7 +1364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -1265,7 +1375,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -1276,7 +1386,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -1287,7 +1397,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>130</v>
       </c>
@@ -1298,7 +1408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -1309,7 +1419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -1320,56 +1430,133 @@
         <v>138</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C19" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C21" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="C23" r:id="rId22"/>
-    <hyperlink ref="C24" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="C26" r:id="rId25"/>
-    <hyperlink ref="C27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="C29" r:id="rId28"/>
-    <hyperlink ref="C30" r:id="rId29"/>
-    <hyperlink ref="C31" r:id="rId30"/>
-    <hyperlink ref="C32" r:id="rId31"/>
-    <hyperlink ref="C33" r:id="rId32"/>
-    <hyperlink ref="C34" r:id="rId33"/>
-    <hyperlink ref="C35" r:id="rId34"/>
-    <hyperlink ref="C36" r:id="rId35"/>
-    <hyperlink ref="C37" r:id="rId36"/>
-    <hyperlink ref="C38" r:id="rId37"/>
-    <hyperlink ref="C39" r:id="rId38"/>
-    <hyperlink ref="C40" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C42" r:id="rId41"/>
-    <hyperlink ref="C43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="C45" r:id="rId44"/>
-    <hyperlink ref="C46" r:id="rId45"/>
-    <hyperlink ref="C47" r:id="rId46"/>
-    <hyperlink ref="C48" r:id="rId47"/>
-    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
